--- a/Новак Подсчет профиля.xlsx
+++ b/Новак Подсчет профиля.xlsx
@@ -62,19 +62,19 @@
     <t>Scripts Think time</t>
   </si>
   <si>
-    <t>Скрипт 1</t>
+    <t>Поиск, покупка и просмотр билета</t>
   </si>
   <si>
-    <t>Скрипт 2</t>
+    <t>Поиск и покупка билета</t>
   </si>
   <si>
-    <t>Скрипт 3</t>
+    <t>Поиск билета на разные даты без оплаты</t>
   </si>
   <si>
-    <t>Скрипт 4</t>
+    <t>Просмотр купленных билетов</t>
   </si>
   <si>
-    <t>Скрипт 5</t>
+    <t>Отмена бронирования билета</t>
   </si>
   <si>
     <t>Коэфициент запаса времени должен равняться 2</t>
@@ -128,7 +128,6 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -264,19 +263,19 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -300,7 +299,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -562,22 +561,22 @@
       <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -875,8 +874,8 @@
       <c r="F8" s="27"/>
       <c r="G8" s="26"/>
       <c r="H8" s="27"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="8"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9">
       <c r="B9" s="28"/>
@@ -884,8 +883,8 @@
       <c r="F9" s="27"/>
       <c r="G9" s="26"/>
       <c r="H9" s="27"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10">
       <c r="B10" s="29"/>
@@ -896,7 +895,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="15"/>
@@ -4985,13 +4984,13 @@
     <row r="2">
       <c r="A2" s="1" t="str">
         <f>'Лист1'!B2</f>
-        <v>Скрипт 1</v>
-      </c>
-      <c r="B2" s="5">
+        <v>Поиск, покупка и просмотр билета</v>
+      </c>
+      <c r="B2" s="4">
         <f>'Лист1'!I2</f>
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="str">
+      <c r="D2" s="5" t="str">
         <f t="shared" ref="D2:D6" si="1">1-B2/C2</f>
         <v>#DIV/0!</v>
       </c>
@@ -4999,13 +4998,13 @@
     <row r="3">
       <c r="A3" s="1" t="str">
         <f>'Лист1'!B3</f>
-        <v>Скрипт 2</v>
-      </c>
-      <c r="B3" s="5">
+        <v>Поиск и покупка билета</v>
+      </c>
+      <c r="B3" s="4">
         <f>'Лист1'!I3</f>
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="5" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -5013,13 +5012,13 @@
     <row r="4">
       <c r="A4" s="1" t="str">
         <f>'Лист1'!B4</f>
-        <v>Скрипт 3</v>
-      </c>
-      <c r="B4" s="5">
+        <v>Поиск билета на разные даты без оплаты</v>
+      </c>
+      <c r="B4" s="4">
         <f>'Лист1'!I4</f>
         <v>37</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="5" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -5027,13 +5026,13 @@
     <row r="5">
       <c r="A5" s="1" t="str">
         <f>'Лист1'!B5</f>
-        <v>Скрипт 4</v>
-      </c>
-      <c r="B5" s="5">
+        <v>Просмотр купленных билетов</v>
+      </c>
+      <c r="B5" s="4">
         <f>'Лист1'!I5</f>
         <v>109</v>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="D5" s="5" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -5041,13 +5040,13 @@
     <row r="6">
       <c r="A6" s="1" t="str">
         <f>'Лист1'!B6</f>
-        <v>Скрипт 5</v>
-      </c>
-      <c r="B6" s="5">
+        <v>Отмена бронирования билета</v>
+      </c>
+      <c r="B6" s="4">
         <f>'Лист1'!I6</f>
         <v>50</v>
       </c>
-      <c r="D6" s="8" t="str">
+      <c r="D6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
